--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/69/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/69/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4664664664664664</v>
+        <v>0.0184018401840184</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1035.035035035035</v>
+        <v>804.4004400440044</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03963963963963964</v>
+        <v>0.003450345034503451</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.4124124124124124</v>
+        <v>0.0144014401440144</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1447.447447447448</v>
+        <v>1295.979597959796</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.7767767767768</v>
+        <v>467.5067506750675</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>847.8478478478479</v>
+        <v>320.6120612061206</v>
       </c>
     </row>
   </sheetData>
